--- a/Test Scenario Final Project.xlsx
+++ b/Test Scenario Final Project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095093\Documents\GitHub\APITesting_FinalProjekKatalonReza_KSAT006ONL015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\APITesting_FinalProjekKatalonReza_KSAT006ONL015\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D74FAA0-9E49-473E-87B4-43C937F7F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="48" yWindow="156" windowWidth="22848" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API TESTING Scenario" sheetId="1" r:id="rId1"/>
@@ -47,9 +48,6 @@
     <t>Test Case Result</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Not executed</t>
   </si>
   <si>
@@ -442,11 +440,14 @@
   <si>
     <t>API_FP_010</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,223 +896,238 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,682 +1408,643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="53">
+        <v>44753</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="79">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12">
-        <v>44753</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="G16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="68"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="G18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="H19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="30" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="67"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="40" t="s">
+      <c r="G24" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="30" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="68"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="G27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="57" t="s">
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="30" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="45"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="G33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="64"/>
+      <c r="F34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="G36" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="69"/>
-    </row>
-    <row r="31" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="41"/>
-    </row>
-    <row r="34" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="37" t="s">
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="64" t="s">
+      <c r="G37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="45"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="45"/>
+      <c r="H37" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B20"/>
@@ -2078,13 +2055,54 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>